--- a/server/prices/husqvarna/Products_HU.xlsx
+++ b/server/prices/husqvarna/Products_HU.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11760"/>
@@ -10,14 +10,14 @@
     <sheet name="Тяжёлая Техника HCP" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Тяжёлая Техника HCP'!$A$1:$F$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Тяжёлая Техника HCP'!$A$1:$F$28</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="57">
   <si>
     <t>Код изделия</t>
   </si>
@@ -28,9 +28,6 @@
     <t>Цена с НДС</t>
   </si>
   <si>
-    <t>Стенорезные машины</t>
-  </si>
-  <si>
     <t>ПРЕЙСКУРАНТ</t>
   </si>
   <si>
@@ -79,12 +76,6 @@
     <t>9665657-01</t>
   </si>
   <si>
-    <t>Канатные машины</t>
-  </si>
-  <si>
-    <t>Силовые установки</t>
-  </si>
-  <si>
     <t>PP 455E</t>
   </si>
   <si>
@@ -106,15 +97,9 @@
     <t>9672073-38</t>
   </si>
   <si>
-    <t xml:space="preserve">Швонарезчики </t>
-  </si>
-  <si>
     <t>9676080-60</t>
   </si>
   <si>
-    <t>Двухвальцовые катки</t>
-  </si>
-  <si>
     <t>LP6505E</t>
   </si>
   <si>
@@ -145,9 +130,6 @@
     <t>9671536-02</t>
   </si>
   <si>
-    <t>Двухроторные затирочные машины</t>
-  </si>
-  <si>
     <t>9704614-03</t>
   </si>
   <si>
@@ -200,13 +182,19 @@
   </si>
   <si>
     <t>uplotnenie-grunta-i-betona</t>
+  </si>
+  <si>
+    <t>Категория</t>
+  </si>
+  <si>
+    <t>Наименование</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="17">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -270,11 +258,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -321,7 +304,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -396,47 +379,30 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="4" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -445,7 +411,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -456,37 +421,18 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="7" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -501,6 +447,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -904,627 +855,526 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="53.85546875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="12" style="7" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="7" customWidth="1"/>
-    <col min="6" max="6" width="35.5703125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="2.5703125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="53.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="12" style="4" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="35.5703125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="2.5703125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A1" s="10"/>
-      <c r="B1" s="23"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-    </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" ht="13.5">
-      <c r="A2" s="10"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="31" t="s">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A1" s="6"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+    </row>
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="13.5">
+      <c r="A2" s="6"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:7" s="1" customFormat="1">
+      <c r="A3" s="6"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:7" s="1" customFormat="1">
+      <c r="A4" s="6"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:7" s="1" customFormat="1">
+      <c r="A5" s="6"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:7" s="1" customFormat="1">
+      <c r="A6" s="6"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="10"/>
-    </row>
-    <row r="3" spans="1:7" s="4" customFormat="1">
-      <c r="A3" s="10"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="10"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1">
-      <c r="A4" s="10"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="10"/>
-    </row>
-    <row r="5" spans="1:7" s="4" customFormat="1">
-      <c r="A5" s="10"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="15" t="s">
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:7" s="1" customFormat="1">
+      <c r="A7" s="6"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:7" s="1" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A8" s="6"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:7" s="1" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
+      <c r="A9" s="6"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:7" s="1" customFormat="1">
+      <c r="A10" s="6"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:7" s="1" customFormat="1" ht="26.25" thickBot="1">
+      <c r="A11" s="6"/>
+      <c r="B11" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="1:7" s="2" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" s="5" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A13" s="3"/>
+      <c r="B13" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="19">
+        <v>1939727</v>
+      </c>
+      <c r="E13" s="19">
+        <f>D13*1.2</f>
+        <v>2327672.4</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="5" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A14" s="3"/>
+      <c r="B14" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="10"/>
-    </row>
-    <row r="6" spans="1:7" s="4" customFormat="1">
-      <c r="A6" s="10"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="10"/>
-    </row>
-    <row r="7" spans="1:7" s="4" customFormat="1">
-      <c r="A7" s="10"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="G7" s="10"/>
-    </row>
-    <row r="8" spans="1:7" s="4" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A8" s="10"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="10"/>
-    </row>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A9" s="10"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="10"/>
-    </row>
-    <row r="10" spans="1:7" s="4" customFormat="1">
-      <c r="A10" s="10"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-    </row>
-    <row r="11" spans="1:7" s="4" customFormat="1" ht="26.25" thickBot="1">
-      <c r="A11" s="10"/>
-      <c r="B11" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" s="10"/>
-    </row>
-    <row r="12" spans="1:7" s="5" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-    </row>
-    <row r="13" spans="1:7" s="8" customFormat="1" ht="9.75" customHeight="1">
-      <c r="A13" s="9"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-    </row>
-    <row r="14" spans="1:7" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A14" s="6"/>
-      <c r="B14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-    </row>
-    <row r="15" spans="1:7" s="8" customFormat="1" ht="8.25" customHeight="1">
-      <c r="A15" s="6"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-    </row>
-    <row r="16" spans="1:7" s="8" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A16" s="6"/>
-      <c r="B16" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="29">
-        <v>1939727</v>
-      </c>
-      <c r="E16" s="29">
+      <c r="C14" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="19">
+        <v>1562753</v>
+      </c>
+      <c r="E14" s="19">
+        <f>D14*1.2</f>
+        <v>1875303.5999999999</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="5" customFormat="1" ht="20.25" customHeight="1">
+      <c r="B15" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="19">
+        <v>2485967</v>
+      </c>
+      <c r="E15" s="19">
+        <f>D15*1.2</f>
+        <v>2983160.4</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="5" customFormat="1" ht="20.25" customHeight="1">
+      <c r="B16" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="19">
+        <v>2563118</v>
+      </c>
+      <c r="E16" s="19">
         <f>D16*1.2</f>
-        <v>2327672.4</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="8" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A17" s="6"/>
-      <c r="B17" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="29">
-        <v>1562753</v>
-      </c>
-      <c r="E17" s="29">
+        <v>3075741.6</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="5" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A17" s="3"/>
+      <c r="B17" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="19">
+        <v>1450575</v>
+      </c>
+      <c r="E17" s="19">
         <f>D17*1.2</f>
-        <v>1875303.5999999999</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="8" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B18" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="29">
-        <v>2485967</v>
-      </c>
-      <c r="E18" s="29">
+        <v>1740690</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="5" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A18" s="3"/>
+      <c r="B18" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="19">
+        <v>759848</v>
+      </c>
+      <c r="E18" s="19">
         <f>D18*1.2</f>
-        <v>2983160.4</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="8" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B19" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="29">
-        <v>2563118</v>
-      </c>
-      <c r="E19" s="29">
-        <f>D19*1.2</f>
-        <v>3075741.6</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="14" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A20" s="8"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-    </row>
-    <row r="21" spans="1:6" s="14" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A21" s="6"/>
-      <c r="B21" s="1" t="s">
+        <v>911817.6</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="5" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A19" s="3"/>
+      <c r="B19" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="30"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-    </row>
-    <row r="22" spans="1:6" s="8" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A22" s="6"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="19"/>
-    </row>
-    <row r="23" spans="1:6" s="8" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A23" s="6"/>
-      <c r="B23" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="29">
-        <v>1450575</v>
-      </c>
-      <c r="E23" s="29">
-        <f>D23*1.2</f>
-        <v>1740690</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" s="8" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A24" s="6"/>
-      <c r="B24" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="29">
-        <v>759848</v>
-      </c>
-      <c r="E24" s="29">
-        <f>D24*1.2</f>
-        <v>911817.6</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" s="8" customFormat="1" ht="8.25" customHeight="1">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-    </row>
-    <row r="26" spans="1:6" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A26" s="6"/>
-      <c r="B26" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" s="22"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-    </row>
-    <row r="27" spans="1:6" s="8" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A27" s="6"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-    </row>
-    <row r="28" spans="1:6" s="8" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A28" s="6"/>
-      <c r="B28" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D28" s="29">
+      <c r="D19" s="19">
         <v>1796395</v>
       </c>
-      <c r="E28" s="29">
-        <f t="shared" ref="E28:E33" si="0">D28*1.2</f>
+      <c r="E19" s="19">
+        <f t="shared" ref="E19:E24" si="0">D19*1.2</f>
         <v>2155674</v>
       </c>
-      <c r="F28" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" s="8" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A29" s="6"/>
-      <c r="B29" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" s="11" t="s">
+      <c r="F19" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D29" s="29">
+    </row>
+    <row r="20" spans="1:6" s="5" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A20" s="3"/>
+      <c r="B20" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="19">
         <v>468676</v>
       </c>
-      <c r="E29" s="29">
+      <c r="E20" s="19">
         <f t="shared" si="0"/>
         <v>562411.19999999995</v>
       </c>
-      <c r="F29" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" s="8" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A30" s="6"/>
-      <c r="B30" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D30" s="29">
+      <c r="F20" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="5" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A21" s="3"/>
+      <c r="B21" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="19">
         <v>438586</v>
       </c>
-      <c r="E30" s="29">
+      <c r="E21" s="19">
         <f t="shared" si="0"/>
         <v>526303.19999999995</v>
       </c>
-      <c r="F30" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="20.25" customHeight="1">
-      <c r="B31" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D31" s="29">
+      <c r="F21" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="20.25" customHeight="1">
+      <c r="B22" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="19">
         <v>771507</v>
       </c>
-      <c r="E31" s="29">
+      <c r="E22" s="19">
         <f t="shared" si="0"/>
         <v>925808.4</v>
       </c>
-      <c r="F31" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="20.25" customHeight="1">
-      <c r="B32" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" s="29">
+      <c r="F22" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="20.25" customHeight="1">
+      <c r="B23" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="19">
         <v>997500</v>
       </c>
-      <c r="E32" s="29">
+      <c r="E23" s="19">
         <f t="shared" si="0"/>
         <v>1197000</v>
       </c>
-      <c r="F32" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="20.25" customHeight="1">
-      <c r="B33" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C33" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="D33" s="29">
+      <c r="F23" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="20.25" customHeight="1">
+      <c r="B24" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="19">
         <v>329044</v>
       </c>
-      <c r="E33" s="29">
+      <c r="E24" s="19">
         <f t="shared" si="0"/>
         <v>394852.8</v>
       </c>
-      <c r="F33" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="15.75">
-      <c r="B34" s="3" t="s">
+      <c r="F24" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="20.25" customHeight="1">
+      <c r="B25" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="19">
+        <v>2886540</v>
+      </c>
+      <c r="E25" s="19">
+        <f>D25*1.2</f>
+        <v>3463848</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="5" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A26" s="3"/>
+      <c r="B26" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="19">
+        <v>3522359</v>
+      </c>
+      <c r="E26" s="19">
+        <f>D26*1.2</f>
+        <v>4226830.8</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="5" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A27" s="3"/>
+      <c r="B27" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="19">
+        <v>3722009</v>
+      </c>
+      <c r="E27" s="19">
+        <f>D27*1.2</f>
+        <v>4466410.8</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="5" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A28" s="3"/>
+      <c r="B28" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="19">
+        <v>4816714</v>
+      </c>
+      <c r="E28" s="19">
+        <f>D28*1.2</f>
+        <v>5780056.7999999998</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15">
+      <c r="B29" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-    </row>
-    <row r="35" spans="1:6" ht="10.5" customHeight="1">
-      <c r="C35" s="2"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-    </row>
-    <row r="36" spans="1:6" ht="20.25" customHeight="1">
-      <c r="B36" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C36" s="11" t="s">
+      <c r="D29" s="19">
+        <v>1264477</v>
+      </c>
+      <c r="E29" s="19">
+        <f>D29*1.2</f>
+        <v>1517372.4</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15">
+      <c r="B30" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D36" s="29">
-        <v>2886540</v>
-      </c>
-      <c r="E36" s="29">
-        <f>D36*1.2</f>
-        <v>3463848</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" s="8" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A37" s="6"/>
-      <c r="B37" s="20" t="s">
+      <c r="D30" s="19">
+        <v>1361442</v>
+      </c>
+      <c r="E30" s="19">
+        <f>D30*1.2</f>
+        <v>1633730.4</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15">
+      <c r="B31" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="19">
+        <v>1173148</v>
+      </c>
+      <c r="E31" s="19">
+        <f>D31*1.2</f>
+        <v>1407777.5999999999</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15">
+      <c r="B32" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D37" s="29">
-        <v>3522359</v>
-      </c>
-      <c r="E37" s="29">
-        <f>D37*1.2</f>
-        <v>4226830.8</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" s="8" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A38" s="6"/>
-      <c r="B38" s="20" t="s">
+      <c r="C32" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="19">
+        <v>1748898</v>
+      </c>
+      <c r="E32" s="19">
+        <f>D32*1.2</f>
+        <v>2098677.6</v>
+      </c>
+      <c r="F32" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D38" s="29">
-        <v>3722009</v>
-      </c>
-      <c r="E38" s="29">
-        <f>D38*1.2</f>
-        <v>4466410.8</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" s="8" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A39" s="6"/>
-      <c r="B39" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D39" s="29">
-        <v>4816714</v>
-      </c>
-      <c r="E39" s="29">
-        <f>D39*1.2</f>
-        <v>5780056.7999999998</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" s="8" customFormat="1" ht="9.75" customHeight="1">
-      <c r="A40" s="6"/>
-    </row>
-    <row r="41" spans="1:6" ht="15.75">
-      <c r="B41" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C41" s="22"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-    </row>
-    <row r="42" spans="1:6" ht="8.25" customHeight="1">
-      <c r="B42" s="1"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-    </row>
-    <row r="43" spans="1:6" ht="15">
-      <c r="B43" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D43" s="29">
-        <v>1264477</v>
-      </c>
-      <c r="E43" s="29">
-        <f>D43*1.2</f>
-        <v>1517372.4</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="15">
-      <c r="B44" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D44" s="29">
-        <v>1361442</v>
-      </c>
-      <c r="E44" s="29">
-        <f>D44*1.2</f>
-        <v>1633730.4</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="13.5">
-      <c r="B46" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="6.75" customHeight="1"/>
-    <row r="48" spans="1:6" ht="15">
-      <c r="B48" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D48" s="29">
-        <v>1173148</v>
-      </c>
-      <c r="E48" s="29">
-        <f>D48*1.2</f>
-        <v>1407777.5999999999</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" ht="15">
-      <c r="B49" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D49" s="29">
-        <v>1748898</v>
-      </c>
-      <c r="E49" s="29">
-        <f>D49*1.2</f>
-        <v>2098677.6</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/server/prices/husqvarna/Products_HU.xlsx
+++ b/server/prices/husqvarna/Products_HU.xlsx
@@ -1,23 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11760"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Тяжёлая Техника HCP" sheetId="4" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Тяжёлая Техника HCP'!$A$1:$F$28</definedName>
-  </definedNames>
   <calcPr calcId="144525"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>Код изделия</t>
   </si>
@@ -46,12 +53,6 @@
     <t>195112, Санкт-Петербург, пр.Малоохтинский 61А</t>
   </si>
   <si>
-    <t>WS 463</t>
-  </si>
-  <si>
-    <t>9651560-02</t>
-  </si>
-  <si>
     <t>WS 440 HF</t>
   </si>
   <si>
@@ -169,32 +170,68 @@
     <t xml:space="preserve">FS7000DL  кожух 1200 мм        </t>
   </si>
   <si>
-    <t xml:space="preserve"> Действителен с 02.10.2021г. ( Цены указаны в рублях)</t>
-  </si>
-  <si>
-    <t>stenoreznye-mashiny</t>
-  </si>
-  <si>
-    <t>kanatnaya-rezka</t>
-  </si>
-  <si>
-    <t>shvonarezchiki</t>
-  </si>
-  <si>
-    <t>uplotnenie-grunta-i-betona</t>
-  </si>
-  <si>
-    <t>Категория</t>
-  </si>
-  <si>
-    <t>Наименование</t>
+    <t>PG830RC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9679779-01 </t>
+  </si>
+  <si>
+    <t>9679776-01</t>
+  </si>
+  <si>
+    <t>PG690RC</t>
+  </si>
+  <si>
+    <t>T7500</t>
+  </si>
+  <si>
+    <t>9676641-04</t>
+  </si>
+  <si>
+    <t>T10000</t>
+  </si>
+  <si>
+    <t>9676637-04</t>
+  </si>
+  <si>
+    <t>9678396-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Действителен с 01.02.2022г. ( Цены указаны в рублях)</t>
+  </si>
+  <si>
+    <t>9678390-12</t>
+  </si>
+  <si>
+    <t>HTC D80</t>
+  </si>
+  <si>
+    <t>C5500</t>
+  </si>
+  <si>
+    <t>9676646-01</t>
+  </si>
+  <si>
+    <t>9704616-13</t>
+  </si>
+  <si>
+    <t>CRT48-57K-PS</t>
+  </si>
+  <si>
+    <t>HTC X8</t>
+  </si>
+  <si>
+    <t>HTC RX8</t>
+  </si>
+  <si>
+    <t>9678397-08</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -295,13 +332,33 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="6">
@@ -394,7 +451,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -434,6 +491,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal 2 3 2" xfId="1"/>
@@ -451,6 +524,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -459,26 +535,38 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3489960</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1025" name="Picture 19" descr="HCP_RGB%20small"/>
+        <xdr:cNvPr id="20535" name="Picture 19" descr="HCP_RGB%20small">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{103EE45E-3B61-48AF-8398-361CBBF3E0E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -486,19 +574,35 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="314325" y="171450"/>
-          <a:ext cx="3571875" cy="1000125"/>
+          <a:off x="220980" y="167640"/>
+          <a:ext cx="3566160" cy="998220"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln w="9525">
+        <a:ln>
           <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
         </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -802,11 +906,11 @@
           <a:pathLst/>
         </a:custGeom>
         <a:solidFill>
-          <a:srgbClr val="090000"/>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="090000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
         </a:solidFill>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:srgbClr val="400000"/>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="400000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:round/>
@@ -833,11 +937,11 @@
           <a:pathLst/>
         </a:custGeom>
         <a:solidFill>
-          <a:srgbClr val="090000"/>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="090000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
         </a:solidFill>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:srgbClr val="400000"/>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="400000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:round/>
@@ -856,10 +960,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -869,7 +973,7 @@
     <col min="3" max="3" width="15.85546875" style="4" customWidth="1"/>
     <col min="4" max="4" width="12" style="4" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="35.5703125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="4"/>
     <col min="7" max="7" width="2.5703125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
@@ -944,7 +1048,7 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="10" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="G7" s="6"/>
     </row>
@@ -966,7 +1070,7 @@
       <c r="F9" s="18"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:7" s="1" customFormat="1">
+    <row r="10" spans="1:7" s="1" customFormat="1" ht="6.75" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="16"/>
       <c r="C10" s="6"/>
@@ -984,15 +1088,13 @@
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:7" s="2" customFormat="1" ht="15.75" thickBot="1">
       <c r="A12" s="5"/>
-      <c r="B12" s="5" t="s">
-        <v>56</v>
-      </c>
+      <c r="B12" s="5"/>
       <c r="C12" s="8" t="s">
         <v>0</v>
       </c>
@@ -1002,32 +1104,26 @@
       <c r="E12" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>55</v>
-      </c>
+      <c r="F12" s="5"/>
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7" s="5" customFormat="1" ht="19.5" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D13" s="19">
-        <v>1939727</v>
+        <v>2017316</v>
       </c>
       <c r="E13" s="19">
         <f>D13*1.2</f>
-        <v>2327672.4</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>51</v>
+        <v>2420779.1999999997</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="5" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A14" s="3"/>
       <c r="B14" s="14" t="s">
         <v>9</v>
       </c>
@@ -1035,14 +1131,11 @@
         <v>10</v>
       </c>
       <c r="D14" s="19">
-        <v>1562753</v>
+        <v>2585406</v>
       </c>
       <c r="E14" s="19">
         <f>D14*1.2</f>
-        <v>1875303.5999999999</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>51</v>
+        <v>3102487.1999999997</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="5" customFormat="1" ht="20.25" customHeight="1">
@@ -1053,17 +1146,15 @@
         <v>12</v>
       </c>
       <c r="D15" s="19">
-        <v>2485967</v>
+        <v>2665643</v>
       </c>
       <c r="E15" s="19">
         <f>D15*1.2</f>
-        <v>2983160.4</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>51</v>
+        <v>3198771.6</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="5" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A16" s="3"/>
       <c r="B16" s="14" t="s">
         <v>13</v>
       </c>
@@ -1071,17 +1162,14 @@
         <v>14</v>
       </c>
       <c r="D16" s="19">
-        <v>2563118</v>
+        <v>1508598</v>
       </c>
       <c r="E16" s="19">
         <f>D16*1.2</f>
-        <v>3075741.6</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="5" customFormat="1" ht="20.25" customHeight="1">
+        <v>1810317.5999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="5" customFormat="1" ht="20.25" customHeight="1">
       <c r="A17" s="3"/>
       <c r="B17" s="14" t="s">
         <v>15</v>
@@ -1090,17 +1178,14 @@
         <v>16</v>
       </c>
       <c r="D17" s="19">
-        <v>1450575</v>
+        <v>790242</v>
       </c>
       <c r="E17" s="19">
         <f>D17*1.2</f>
-        <v>1740690</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="5" customFormat="1" ht="20.25" customHeight="1">
+        <v>948290.39999999991</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="5" customFormat="1" ht="20.25" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="14" t="s">
         <v>17</v>
@@ -1109,74 +1194,61 @@
         <v>18</v>
       </c>
       <c r="D18" s="19">
-        <v>759848</v>
+        <v>1868251</v>
       </c>
       <c r="E18" s="19">
-        <f>D18*1.2</f>
-        <v>911817.6</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="5" customFormat="1" ht="20.25" customHeight="1">
+        <f t="shared" ref="E18:E23" si="0">D18*1.2</f>
+        <v>2241901.1999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="5" customFormat="1" ht="20.25" customHeight="1">
       <c r="A19" s="3"/>
       <c r="B19" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>20</v>
+        <v>44</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="D19" s="19">
-        <v>1796395</v>
+        <v>487423</v>
       </c>
       <c r="E19" s="19">
-        <f t="shared" ref="E19:E24" si="0">D19*1.2</f>
-        <v>2155674</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="5" customFormat="1" ht="20.25" customHeight="1">
+        <f t="shared" si="0"/>
+        <v>584907.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="5" customFormat="1" ht="20.25" customHeight="1">
       <c r="A20" s="3"/>
       <c r="B20" s="14" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D20" s="19">
-        <v>468676</v>
+        <v>456129</v>
       </c>
       <c r="E20" s="19">
         <f t="shared" si="0"/>
-        <v>562411.19999999995</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="5" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A21" s="3"/>
+        <v>547354.79999999993</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="4" customFormat="1" ht="20.25" customHeight="1">
       <c r="B21" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>43</v>
+        <v>19</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>20</v>
       </c>
       <c r="D21" s="19">
-        <v>438586</v>
+        <v>802367</v>
       </c>
       <c r="E21" s="19">
         <f t="shared" si="0"/>
-        <v>526303.19999999995</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="20.25" customHeight="1">
+        <v>962840.39999999991</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="4" customFormat="1" ht="20.25" customHeight="1">
       <c r="B22" s="14" t="s">
         <v>21</v>
       </c>
@@ -1184,197 +1256,288 @@
         <v>22</v>
       </c>
       <c r="D22" s="19">
-        <v>771507</v>
+        <v>1037400</v>
       </c>
       <c r="E22" s="19">
         <f t="shared" si="0"/>
-        <v>925808.4</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="20.25" customHeight="1">
+        <v>1244880</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="4" customFormat="1" ht="20.25" customHeight="1">
       <c r="B23" s="14" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D23" s="19">
-        <v>997500</v>
+        <v>342206</v>
       </c>
       <c r="E23" s="19">
         <f t="shared" si="0"/>
-        <v>1197000</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="20.25" customHeight="1">
+        <v>410647.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="20.25" customHeight="1">
       <c r="B24" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>36</v>
+        <v>29</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="D24" s="19">
-        <v>329044</v>
+        <v>3002002</v>
       </c>
       <c r="E24" s="19">
-        <f t="shared" si="0"/>
-        <v>394852.8</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="20.25" customHeight="1">
+        <f>D24*1.2</f>
+        <v>3602402.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="5" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A25" s="3"/>
       <c r="B25" s="14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D25" s="19">
-        <v>2886540</v>
+        <v>3663253</v>
       </c>
       <c r="E25" s="19">
         <f>D25*1.2</f>
-        <v>3463848</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" s="5" customFormat="1" ht="20.25" customHeight="1">
+        <v>4395903.5999999996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="5" customFormat="1" ht="20.25" customHeight="1">
       <c r="A26" s="3"/>
       <c r="B26" s="14" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D26" s="19">
-        <v>3522359</v>
+        <v>3870889</v>
       </c>
       <c r="E26" s="19">
         <f>D26*1.2</f>
-        <v>4226830.8</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" s="5" customFormat="1" ht="20.25" customHeight="1">
+        <v>4645066.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="5" customFormat="1" ht="20.25" customHeight="1">
       <c r="A27" s="3"/>
       <c r="B27" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D27" s="19">
-        <v>3722009</v>
+        <v>5009383</v>
       </c>
       <c r="E27" s="19">
         <f>D27*1.2</f>
-        <v>4466410.8</v>
-      </c>
-      <c r="F27" s="4" t="s">
+        <v>6011259.5999999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="5" customFormat="1" ht="19.149999999999999" customHeight="1">
+      <c r="A28" s="3"/>
+      <c r="B28" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" s="23">
+        <v>1975000</v>
+      </c>
+      <c r="E28" s="23">
+        <f>D28*1.2</f>
+        <v>2370000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="5" customFormat="1" ht="19.149999999999999" customHeight="1">
+      <c r="A29" s="3"/>
+      <c r="B29" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="23">
+        <v>2180000</v>
+      </c>
+      <c r="E29" s="23">
+        <f>D29*1.2</f>
+        <v>2616000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="5" customFormat="1" ht="19.149999999999999" customHeight="1">
+      <c r="A30" s="3"/>
+      <c r="B30" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" s="23">
+        <v>2000000</v>
+      </c>
+      <c r="E30" s="23">
+        <f>D30*1.2</f>
+        <v>2400000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="5" customFormat="1" ht="19.149999999999999" customHeight="1">
+      <c r="A31" s="3"/>
+      <c r="B31" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" s="23">
+        <v>2750000</v>
+      </c>
+      <c r="E31" s="23">
+        <f>D31*1.2</f>
+        <v>3300000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="17.25" customHeight="1">
+      <c r="B32" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="26">
+        <v>183405</v>
+      </c>
+      <c r="E32" s="23">
+        <f>D32*1.2</f>
+        <v>220086</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" ht="17.25" customHeight="1">
+      <c r="B33" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="24" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" s="5" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A28" s="3"/>
-      <c r="B28" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" s="19">
-        <v>4816714</v>
-      </c>
-      <c r="E28" s="19">
-        <f>D28*1.2</f>
-        <v>5780056.7999999998</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="15">
-      <c r="B29" s="14" t="s">
+      <c r="D33" s="26">
+        <v>810000</v>
+      </c>
+      <c r="E33" s="23">
+        <f>D33*1.2</f>
+        <v>972000</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" ht="17.25" customHeight="1">
+      <c r="B34" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" s="26">
+        <v>965000</v>
+      </c>
+      <c r="E34" s="23">
+        <f>D34*1.2</f>
+        <v>1158000</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" ht="17.25" customHeight="1">
+      <c r="B35" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35" s="26">
+        <v>1178412</v>
+      </c>
+      <c r="E35" s="23">
+        <f>D35*1.2</f>
+        <v>1414094.4</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" ht="15">
+      <c r="B36" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29" s="19">
-        <v>1264477</v>
-      </c>
-      <c r="E29" s="19">
-        <f>D29*1.2</f>
-        <v>1517372.4</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="15">
-      <c r="B30" s="14" t="s">
+      <c r="D36" s="19">
+        <v>1315056</v>
+      </c>
+      <c r="E36" s="19">
+        <f>D36*1.2</f>
+        <v>1578067.2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" ht="15">
+      <c r="B37" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D30" s="19">
-        <v>1361442</v>
-      </c>
-      <c r="E30" s="19">
-        <f>D30*1.2</f>
-        <v>1633730.4</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="15">
-      <c r="B31" s="14" t="s">
+      <c r="D37" s="19">
+        <v>1415900</v>
+      </c>
+      <c r="E37" s="19">
+        <f>D37*1.2</f>
+        <v>1699080</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" ht="15">
+      <c r="B38" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D38" s="19">
+        <v>1200000</v>
+      </c>
+      <c r="E38" s="19">
+        <f>D38*1.2</f>
+        <v>1440000</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" ht="15">
+      <c r="B39" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D31" s="19">
-        <v>1173148</v>
-      </c>
-      <c r="E31" s="19">
-        <f>D31*1.2</f>
-        <v>1407777.5999999999</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="15">
-      <c r="B32" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D32" s="19">
-        <v>1748898</v>
-      </c>
-      <c r="E32" s="19">
-        <f>D32*1.2</f>
-        <v>2098677.6</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>54</v>
+      <c r="D39" s="19">
+        <v>1818854</v>
+      </c>
+      <c r="E39" s="19">
+        <f>D39*1.2</f>
+        <v>2182624.7999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" ht="15">
+      <c r="B40" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D40" s="23">
+        <v>2377000</v>
+      </c>
+      <c r="E40" s="23">
+        <f>D40*1.2</f>
+        <v>2852400</v>
       </c>
     </row>
   </sheetData>
@@ -1383,7 +1546,7 @@
   <pageSetup paperSize="9" scale="85" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C&amp;"a_AlbionicTitulInfl,обычный"Husqvarna Construction Products
-2021</oddFooter>
+2022</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/server/prices/husqvarna/Products_HU.xlsx
+++ b/server/prices/husqvarna/Products_HU.xlsx
@@ -1,30 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15600"/>
   </bookViews>
   <sheets>
     <sheet name="Тяжёлая Техника HCP" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="114210"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>Код изделия</t>
   </si>
@@ -225,12 +215,15 @@
   </si>
   <si>
     <t>9678397-08</t>
+  </si>
+  <si>
+    <t>Категория</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="18">
     <font>
       <sz val="10"/>
@@ -325,26 +318,26 @@
       <name val="Courier 20cpi"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
   </fonts>
   <fills count="3">
@@ -356,7 +349,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor indexed="13"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,7 +435,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="4" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -498,10 +491,10 @@
     <xf numFmtId="3" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -520,14 +513,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -536,37 +521,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>220980</xdr:colOff>
+      <xdr:colOff>219075</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>3489960</xdr:colOff>
+      <xdr:colOff>3486150</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20535" name="Picture 19" descr="HCP_RGB%20small">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{103EE45E-3B61-48AF-8398-361CBBF3E0E8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="1025" name="Picture 19" descr="HCP_RGB%20small"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -574,35 +547,19 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="220980" y="167640"/>
-          <a:ext cx="3566160" cy="998220"/>
+          <a:off x="219075" y="171450"/>
+          <a:ext cx="3562350" cy="1000125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="9525">
           <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
         </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -906,11 +863,11 @@
           <a:pathLst/>
         </a:custGeom>
         <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="090000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          <a:srgbClr val="090000"/>
         </a:solidFill>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="400000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            <a:srgbClr val="400000"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:round/>
@@ -937,11 +894,11 @@
           <a:pathLst/>
         </a:custGeom>
         <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="090000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          <a:srgbClr val="090000"/>
         </a:solidFill>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="400000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            <a:srgbClr val="400000"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:round/>
@@ -959,11 +916,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1104,7 +1061,9 @@
       <c r="E12" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="5"/>
+      <c r="F12" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7" s="5" customFormat="1" ht="19.5" customHeight="1">
@@ -1233,7 +1192,7 @@
         <v>547354.79999999993</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="4" customFormat="1" ht="20.25" customHeight="1">
+    <row r="21" spans="1:5" ht="20.25" customHeight="1">
       <c r="B21" s="14" t="s">
         <v>19</v>
       </c>
@@ -1248,7 +1207,7 @@
         <v>962840.39999999991</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="4" customFormat="1" ht="20.25" customHeight="1">
+    <row r="22" spans="1:5" ht="20.25" customHeight="1">
       <c r="B22" s="14" t="s">
         <v>21</v>
       </c>
@@ -1263,7 +1222,7 @@
         <v>1244880</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="4" customFormat="1" ht="20.25" customHeight="1">
+    <row r="23" spans="1:5" ht="20.25" customHeight="1">
       <c r="B23" s="14" t="s">
         <v>33</v>
       </c>
@@ -1289,7 +1248,7 @@
         <v>3002002</v>
       </c>
       <c r="E24" s="19">
-        <f>D24*1.2</f>
+        <f t="shared" ref="E24:E40" si="1">D24*1.2</f>
         <v>3602402.4</v>
       </c>
     </row>
@@ -1305,7 +1264,7 @@
         <v>3663253</v>
       </c>
       <c r="E25" s="19">
-        <f>D25*1.2</f>
+        <f t="shared" si="1"/>
         <v>4395903.5999999996</v>
       </c>
     </row>
@@ -1321,7 +1280,7 @@
         <v>3870889</v>
       </c>
       <c r="E26" s="19">
-        <f>D26*1.2</f>
+        <f t="shared" si="1"/>
         <v>4645066.8</v>
       </c>
     </row>
@@ -1337,7 +1296,7 @@
         <v>5009383</v>
       </c>
       <c r="E27" s="19">
-        <f>D27*1.2</f>
+        <f t="shared" si="1"/>
         <v>6011259.5999999996</v>
       </c>
     </row>
@@ -1353,7 +1312,7 @@
         <v>1975000</v>
       </c>
       <c r="E28" s="23">
-        <f>D28*1.2</f>
+        <f t="shared" si="1"/>
         <v>2370000</v>
       </c>
     </row>
@@ -1369,7 +1328,7 @@
         <v>2180000</v>
       </c>
       <c r="E29" s="23">
-        <f>D29*1.2</f>
+        <f t="shared" si="1"/>
         <v>2616000</v>
       </c>
     </row>
@@ -1385,7 +1344,7 @@
         <v>2000000</v>
       </c>
       <c r="E30" s="23">
-        <f>D30*1.2</f>
+        <f t="shared" si="1"/>
         <v>2400000</v>
       </c>
     </row>
@@ -1401,7 +1360,7 @@
         <v>2750000</v>
       </c>
       <c r="E31" s="23">
-        <f>D31*1.2</f>
+        <f t="shared" si="1"/>
         <v>3300000</v>
       </c>
     </row>
@@ -1416,7 +1375,7 @@
         <v>183405</v>
       </c>
       <c r="E32" s="23">
-        <f>D32*1.2</f>
+        <f t="shared" si="1"/>
         <v>220086</v>
       </c>
     </row>
@@ -1431,7 +1390,7 @@
         <v>810000</v>
       </c>
       <c r="E33" s="23">
-        <f>D33*1.2</f>
+        <f t="shared" si="1"/>
         <v>972000</v>
       </c>
     </row>
@@ -1446,7 +1405,7 @@
         <v>965000</v>
       </c>
       <c r="E34" s="23">
-        <f>D34*1.2</f>
+        <f t="shared" si="1"/>
         <v>1158000</v>
       </c>
     </row>
@@ -1461,7 +1420,7 @@
         <v>1178412</v>
       </c>
       <c r="E35" s="23">
-        <f>D35*1.2</f>
+        <f t="shared" si="1"/>
         <v>1414094.4</v>
       </c>
     </row>
@@ -1476,7 +1435,7 @@
         <v>1315056</v>
       </c>
       <c r="E36" s="19">
-        <f>D36*1.2</f>
+        <f t="shared" si="1"/>
         <v>1578067.2</v>
       </c>
     </row>
@@ -1491,7 +1450,7 @@
         <v>1415900</v>
       </c>
       <c r="E37" s="19">
-        <f>D37*1.2</f>
+        <f t="shared" si="1"/>
         <v>1699080</v>
       </c>
     </row>
@@ -1506,7 +1465,7 @@
         <v>1200000</v>
       </c>
       <c r="E38" s="19">
-        <f>D38*1.2</f>
+        <f t="shared" si="1"/>
         <v>1440000</v>
       </c>
     </row>
@@ -1521,7 +1480,7 @@
         <v>1818854</v>
       </c>
       <c r="E39" s="19">
-        <f>D39*1.2</f>
+        <f t="shared" si="1"/>
         <v>2182624.7999999998</v>
       </c>
     </row>
@@ -1536,7 +1495,7 @@
         <v>2377000</v>
       </c>
       <c r="E40" s="23">
-        <f>D40*1.2</f>
+        <f t="shared" si="1"/>
         <v>2852400</v>
       </c>
     </row>

--- a/server/prices/husqvarna/Products_HU.xlsx
+++ b/server/prices/husqvarna/Products_HU.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15600"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Тяжёлая Техника HCP" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="114210"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="71">
   <si>
     <t>Код изделия</t>
   </si>
@@ -218,13 +218,22 @@
   </si>
   <si>
     <t>Категория</t>
+  </si>
+  <si>
+    <t>shlifovanie-betona</t>
+  </si>
+  <si>
+    <t>sbor-pyli-i-shlama</t>
+  </si>
+  <si>
+    <t>shvonarezchiki</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="19">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -338,6 +347,13 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial Cyr"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="3">
@@ -430,7 +446,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="4" fontId="7" fillId="0" borderId="0"/>
@@ -443,8 +459,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -500,11 +517,13 @@
     <xf numFmtId="3" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="8" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="9">
     <cellStyle name="Normal 2 3 2" xfId="1"/>
     <cellStyle name="Normal 25" xfId="2"/>
     <cellStyle name="Normal_LATEST 680 &amp; 820 COST BREAKDOWN - 2006.06.18" xfId="3"/>
+    <cellStyle name="Гиперссылка" xfId="8" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="4"/>
     <cellStyle name="Обычный 3 2" xfId="5"/>
@@ -513,6 +532,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -916,11 +940,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -930,7 +954,7 @@
     <col min="3" max="3" width="15.85546875" style="4" customWidth="1"/>
     <col min="4" max="4" width="12" style="4" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="4"/>
+    <col min="6" max="6" width="37.85546875" style="4" customWidth="1"/>
     <col min="7" max="7" width="2.5703125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1128,7 +1152,7 @@
         <v>1810317.5999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="5" customFormat="1" ht="20.25" customHeight="1">
+    <row r="17" spans="1:6" s="5" customFormat="1" ht="20.25" customHeight="1">
       <c r="A17" s="3"/>
       <c r="B17" s="14" t="s">
         <v>15</v>
@@ -1144,7 +1168,7 @@
         <v>948290.39999999991</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="5" customFormat="1" ht="20.25" customHeight="1">
+    <row r="18" spans="1:6" s="5" customFormat="1" ht="20.25" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="14" t="s">
         <v>17</v>
@@ -1160,7 +1184,7 @@
         <v>2241901.1999999997</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="5" customFormat="1" ht="20.25" customHeight="1">
+    <row r="19" spans="1:6" s="5" customFormat="1" ht="20.25" customHeight="1">
       <c r="A19" s="3"/>
       <c r="B19" s="14" t="s">
         <v>44</v>
@@ -1176,7 +1200,7 @@
         <v>584907.6</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="5" customFormat="1" ht="20.25" customHeight="1">
+    <row r="20" spans="1:6" s="5" customFormat="1" ht="20.25" customHeight="1">
       <c r="A20" s="3"/>
       <c r="B20" s="14" t="s">
         <v>42</v>
@@ -1192,7 +1216,7 @@
         <v>547354.79999999993</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="20.25" customHeight="1">
+    <row r="21" spans="1:6" ht="20.25" customHeight="1">
       <c r="B21" s="14" t="s">
         <v>19</v>
       </c>
@@ -1207,7 +1231,7 @@
         <v>962840.39999999991</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="20.25" customHeight="1">
+    <row r="22" spans="1:6" ht="20.25" customHeight="1">
       <c r="B22" s="14" t="s">
         <v>21</v>
       </c>
@@ -1222,7 +1246,7 @@
         <v>1244880</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="20.25" customHeight="1">
+    <row r="23" spans="1:6" ht="20.25" customHeight="1">
       <c r="B23" s="14" t="s">
         <v>33</v>
       </c>
@@ -1237,7 +1261,7 @@
         <v>410647.2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="20.25" customHeight="1">
+    <row r="24" spans="1:6" ht="20.25" customHeight="1">
       <c r="B24" s="14" t="s">
         <v>29</v>
       </c>
@@ -1252,7 +1276,7 @@
         <v>3602402.4</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="5" customFormat="1" ht="20.25" customHeight="1">
+    <row r="25" spans="1:6" s="5" customFormat="1" ht="20.25" customHeight="1">
       <c r="A25" s="3"/>
       <c r="B25" s="14" t="s">
         <v>32</v>
@@ -1268,7 +1292,7 @@
         <v>4395903.5999999996</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="5" customFormat="1" ht="20.25" customHeight="1">
+    <row r="26" spans="1:6" s="5" customFormat="1" ht="20.25" customHeight="1">
       <c r="A26" s="3"/>
       <c r="B26" s="14" t="s">
         <v>46</v>
@@ -1283,8 +1307,11 @@
         <f t="shared" si="1"/>
         <v>4645066.8</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" s="5" customFormat="1" ht="20.25" customHeight="1">
+      <c r="F26" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="5" customFormat="1" ht="20.25" customHeight="1">
       <c r="A27" s="3"/>
       <c r="B27" s="14" t="s">
         <v>47</v>
@@ -1299,8 +1326,11 @@
         <f t="shared" si="1"/>
         <v>6011259.5999999996</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" s="5" customFormat="1" ht="19.149999999999999" customHeight="1">
+      <c r="F27" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="5" customFormat="1" ht="19.149999999999999" customHeight="1">
       <c r="A28" s="3"/>
       <c r="B28" s="21" t="s">
         <v>51</v>
@@ -1315,8 +1345,11 @@
         <f t="shared" si="1"/>
         <v>2370000</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" s="5" customFormat="1" ht="19.149999999999999" customHeight="1">
+      <c r="F28" s="27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="5" customFormat="1" ht="19.149999999999999" customHeight="1">
       <c r="A29" s="3"/>
       <c r="B29" s="21" t="s">
         <v>48</v>
@@ -1331,8 +1364,11 @@
         <f t="shared" si="1"/>
         <v>2616000</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" s="5" customFormat="1" ht="19.149999999999999" customHeight="1">
+      <c r="F29" s="27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="5" customFormat="1" ht="19.149999999999999" customHeight="1">
       <c r="A30" s="3"/>
       <c r="B30" s="21" t="s">
         <v>64</v>
@@ -1347,8 +1383,11 @@
         <f t="shared" si="1"/>
         <v>2400000</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" s="5" customFormat="1" ht="19.149999999999999" customHeight="1">
+      <c r="F30" s="27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="5" customFormat="1" ht="19.149999999999999" customHeight="1">
       <c r="A31" s="3"/>
       <c r="B31" s="21" t="s">
         <v>65</v>
@@ -1363,8 +1402,11 @@
         <f t="shared" si="1"/>
         <v>3300000</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="17.25" customHeight="1">
+      <c r="F31" s="27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="17.25" customHeight="1">
       <c r="B32" s="25" t="s">
         <v>60</v>
       </c>
@@ -1378,8 +1420,11 @@
         <f t="shared" si="1"/>
         <v>220086</v>
       </c>
-    </row>
-    <row r="33" spans="2:5" ht="17.25" customHeight="1">
+      <c r="F32" s="27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="17.25" customHeight="1">
       <c r="B33" s="25" t="s">
         <v>52</v>
       </c>
@@ -1393,8 +1438,11 @@
         <f t="shared" si="1"/>
         <v>972000</v>
       </c>
-    </row>
-    <row r="34" spans="2:5" ht="17.25" customHeight="1">
+      <c r="F33" s="27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" ht="17.25" customHeight="1">
       <c r="B34" s="25" t="s">
         <v>59</v>
       </c>
@@ -1408,8 +1456,11 @@
         <f t="shared" si="1"/>
         <v>1158000</v>
       </c>
-    </row>
-    <row r="35" spans="2:5" ht="17.25" customHeight="1">
+      <c r="F34" s="27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" ht="17.25" customHeight="1">
       <c r="B35" s="25" t="s">
         <v>54</v>
       </c>
@@ -1423,8 +1474,11 @@
         <f t="shared" si="1"/>
         <v>1414094.4</v>
       </c>
-    </row>
-    <row r="36" spans="2:5" ht="15">
+      <c r="F35" s="27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" ht="15">
       <c r="B36" s="14" t="s">
         <v>25</v>
       </c>
@@ -1439,7 +1493,7 @@
         <v>1578067.2</v>
       </c>
     </row>
-    <row r="37" spans="2:5" ht="15">
+    <row r="37" spans="2:6" ht="15">
       <c r="B37" s="14" t="s">
         <v>26</v>
       </c>
@@ -1454,7 +1508,7 @@
         <v>1699080</v>
       </c>
     </row>
-    <row r="38" spans="2:5" ht="15">
+    <row r="38" spans="2:6" ht="15">
       <c r="B38" s="14" t="s">
         <v>36</v>
       </c>
@@ -1469,7 +1523,7 @@
         <v>1440000</v>
       </c>
     </row>
-    <row r="39" spans="2:5" ht="15">
+    <row r="39" spans="2:6" ht="15">
       <c r="B39" s="14" t="s">
         <v>37</v>
       </c>
@@ -1484,7 +1538,7 @@
         <v>2182624.7999999998</v>
       </c>
     </row>
-    <row r="40" spans="2:5" ht="15">
+    <row r="40" spans="2:6" ht="15">
       <c r="B40" s="21" t="s">
         <v>63</v>
       </c>
@@ -1498,15 +1552,27 @@
         <f t="shared" si="1"/>
         <v>2852400</v>
       </c>
+      <c r="F40" s="27" t="s">
+        <v>69</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F34" r:id="rId1" display="https://leidtogi.ru/sbor-pyli-i-shlama"/>
+    <hyperlink ref="F35" r:id="rId2" display="https://leidtogi.ru/sbor-pyli-i-shlama"/>
+    <hyperlink ref="F33" r:id="rId3" display="https://leidtogi.ru/sbor-pyli-i-shlama"/>
+    <hyperlink ref="F32" r:id="rId4" display="https://leidtogi.ru/sbor-pyli-i-shlama"/>
+    <hyperlink ref="F28" r:id="rId5" display="https://leidtogi.ru/shlifovanie-betona"/>
+    <hyperlink ref="F29:F31" r:id="rId6" display="https://leidtogi.ru/shlifovanie-betona"/>
+    <hyperlink ref="F40" r:id="rId7" display="https://leidtogi.ru/shlifovanie-betona"/>
+  </hyperlinks>
   <pageMargins left="0.74803149606299213" right="0.27559055118110237" top="0.31496062992125984" bottom="0.47244094488188981" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="85" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="85" orientation="portrait" r:id="rId8"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C&amp;"a_AlbionicTitulInfl,обычный"Husqvarna Construction Products
 2022</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId9"/>
 </worksheet>
 </file>